--- a/01_Testes_Manuais/Projeto_Udemy/3_Bug_Reportados_Udemy_v1.0.xlsx
+++ b/01_Testes_Manuais/Projeto_Udemy/3_Bug_Reportados_Udemy_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamella Moraes\Documents\QA\001. ESTUDOS ANALISTA DE TESTE QA JR\001.Exercicios\001_Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamella Moraes\Documents\Projetos Git\QA-Projects\01_Testes_Manuais\Projeto_Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A62F8D2-C3A6-41B1-A016-D399E172036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE94F3-E0EF-479E-90E3-090DA59A006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs Reportados" sheetId="3" r:id="rId1"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
@@ -720,7 +720,7 @@
     <col min="7" max="7" width="60" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="11" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="50" customWidth="1"/>
   </cols>
